--- a/023-integracaoPythonEmail/02-explicacaoDoDesafio/Enviar E-mails.xlsx
+++ b/023-integracaoPythonEmail/02-explicacaoDoDesafio/Enviar E-mails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Google Drive\Python Impressionador\Gravações e Arquivos\21.06 - Solução do Desafio de Python e E-mail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jharbes\Documents\GitHub\hashtagPython\023-integracaoPythonEmail\02-explicacaoDoDesafio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E89924-F80D-41E6-9BD2-AA69F3F78099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF25E99-10E8-4B1E-BCF7-5EA79B7C971E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{F493D48C-57DD-448B-A29F-0870F5FA714B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{F493D48C-57DD-448B-A29F-0870F5FA714B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Gerente</t>
   </si>
@@ -85,13 +85,16 @@
   </si>
   <si>
     <t>E-mail</t>
+  </si>
+  <si>
+    <t>jharbes@hotmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,13 +106,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,10 +134,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -158,7 +154,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -457,16 +453,16 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.89453125" customWidth="1"/>
-    <col min="3" max="3" width="10.734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,70 +473,94 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{29A7A073-4844-4A93-828B-F57735A36C77}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{F885BBC2-A43A-4A0E-89A9-94F1E5715DA2}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{E7960A35-DBA3-4F71-8BB7-55D3092BCF13}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{EB700271-01A2-442B-87EC-C1A500EFBDC9}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{CA6C222E-8E4E-4583-BD03-379242B4B1B9}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{6DB241A9-D773-4636-890F-23525513571C}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{8FD0B015-9228-4C1E-9A2A-B8387B66ECAB}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/023-integracaoPythonEmail/02-explicacaoDoDesafio/Enviar E-mails.xlsx
+++ b/023-integracaoPythonEmail/02-explicacaoDoDesafio/Enviar E-mails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jharbes\Documents\GitHub\hashtagPython\023-integracaoPythonEmail\02-explicacaoDoDesafio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF25E99-10E8-4B1E-BCF7-5EA79B7C971E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9909036A-C515-487A-85BC-9F73D6BA13A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{F493D48C-57DD-448B-A29F-0870F5FA714B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Gerente</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>jharbes@hotmail.com</t>
+  </si>
+  <si>
+    <t>jharbes@icloud.com</t>
+  </si>
+  <si>
+    <t>jorge.harbes@technipfmc.com</t>
+  </si>
+  <si>
+    <t>jorgenamiharbes@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -453,7 +462,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -500,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -511,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -533,7 +542,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -544,7 +553,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
